--- a/openspec/design_src/MechWeapons.xlsx
+++ b/openspec/design_src/MechWeapons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 move\Projects\TDFM\mech-td-prototype\openspec\design_src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96BDE2-C80D-4DA3-A566-4C581685636C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032B712B-45FA-402D-9315-AF53A90EDFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2950" yWindow="1660" windowWidth="16010" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2950" yWindow="1660" windowWidth="16010" windowHeight="9330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#説明" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>good stats but slow</t>
+  </si>
+  <si>
+    <t>SequentialFire</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -587,11 +593,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,12 +609,12 @@
     <col min="6" max="6" width="11.6328125" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="9" width="6.54296875" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" customWidth="1"/>
+    <col min="10" max="11" width="7.90625" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -637,17 +643,18 @@
         <v>17</v>
       </c>
       <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -679,16 +686,19 @@
         <v>31</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -718,16 +728,19 @@
         <v>3</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>21001</v>
       </c>
@@ -755,17 +768,20 @@
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>1000</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
       <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>21002</v>
       </c>
@@ -796,17 +812,20 @@
       <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>1000</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>-1000</v>
       </c>
-      <c r="M5" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>21003</v>
       </c>
@@ -836,16 +855,19 @@
         <v>33</v>
       </c>
       <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
         <v>1200</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>21004</v>
       </c>
@@ -875,16 +897,19 @@
         <v>33</v>
       </c>
       <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
         <v>1200</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>21005</v>
       </c>
@@ -916,16 +941,19 @@
         <v>33</v>
       </c>
       <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
         <v>1200</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>1000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>21006</v>
       </c>
@@ -953,17 +981,20 @@
       <c r="J9" t="s">
         <v>33</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>1600</v>
       </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>21007</v>
       </c>
@@ -991,13 +1022,16 @@
       <c r="J10" t="s">
         <v>35</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>800</v>
       </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>12</v>
       </c>
     </row>
@@ -1009,11 +1043,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357834BD-C019-4247-80D6-8C22455E372D}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,11 +1059,12 @@
     <col min="5" max="5" width="7.1796875" customWidth="1"/>
     <col min="7" max="7" width="11.6328125" customWidth="1"/>
     <col min="9" max="10" width="6.54296875" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1060,17 +1095,18 @@
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1102,16 +1138,19 @@
         <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1141,16 +1180,19 @@
         <v>9</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>22001</v>
       </c>
@@ -1178,17 +1220,20 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>2000</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
       <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>22002</v>
       </c>
@@ -1216,17 +1261,20 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>2000</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
       <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>22003</v>
       </c>
@@ -1255,17 +1303,20 @@
       <c r="J6">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>1600</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>22004</v>
       </c>
@@ -1294,17 +1345,20 @@
       <c r="J7">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>1600</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>22005</v>
       </c>
@@ -1335,25 +1389,30 @@
       <c r="J8">
         <v>7</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>1600</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>-2000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
